--- a/QB Data Project/analysis/qb_data_analysis.xlsx
+++ b/QB Data Project/analysis/qb_data_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikegreen15/Documents/Portfolio/QB Data Project/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Important Documents\Portfolio Project\QB_Stats_Dashboard\QB Data Project\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC9827B-FD3F-E04F-A2DC-FB3D02B1DA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F5BCEF-4F72-4CC3-A1AB-45ED0E5B7163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="13" r:id="rId1"/>
@@ -27,17 +27,18 @@
   <definedNames>
     <definedName name="Slicer_Player">#N/A</definedName>
     <definedName name="Slicer_Total_Games_Played_2015_2024">#N/A</definedName>
+    <definedName name="Slicer_Total_Interceptions_2015_2024">#N/A</definedName>
     <definedName name="Slicer_Total_passing_TDs_2015_2024">#N/A</definedName>
     <definedName name="Slicer_Total_Passing_Yards_2015_2024">#N/A</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="58" r:id="rId11"/>
-    <pivotCache cacheId="59" r:id="rId12"/>
-    <pivotCache cacheId="60" r:id="rId13"/>
-    <pivotCache cacheId="61" r:id="rId14"/>
-    <pivotCache cacheId="72" r:id="rId15"/>
-    <pivotCache cacheId="77" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
+    <pivotCache cacheId="3" r:id="rId14"/>
+    <pivotCache cacheId="4" r:id="rId15"/>
+    <pivotCache cacheId="5" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -46,6 +47,7 @@
         <x14:slicerCache r:id="rId18"/>
         <x14:slicerCache r:id="rId19"/>
         <x14:slicerCache r:id="rId20"/>
+        <x14:slicerCache r:id="rId21"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="107">
   <si>
     <t>Player</t>
   </si>
@@ -383,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -471,14 +473,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -506,20 +540,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -775,12 +795,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -788,18 +805,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Total Passing</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> Yards (2015-2025</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -816,12 +849,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2712,7 +2742,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx2">
                       <a:lumMod val="50000"/>
@@ -2740,7 +2770,17 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16493664028229296"/>
+          <c:y val="0.12235960740185808"/>
+          <c:w val="0.78981300826716028"/>
+          <c:h val="0.78210291487212635"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -2784,7 +2824,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2">
                         <a:lumMod val="50000"/>
@@ -2980,7 +3020,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln w="6350">
                   <a:noFill/>
                 </a:ln>
@@ -3054,12 +3094,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3067,7 +3104,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1050" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Passing Yards</a:t>
                 </a:r>
               </a:p>
@@ -3086,12 +3127,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3118,15 +3156,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3249,7 +3284,6 @@
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -3287,12 +3321,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3300,7 +3331,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Average Yards Thrown Downfield</a:t>
             </a:r>
           </a:p>
@@ -3319,12 +3354,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3692,12 +3724,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3705,7 +3734,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1050" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Season </a:t>
                 </a:r>
               </a:p>
@@ -3724,12 +3757,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3762,12 +3792,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3812,12 +3839,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3825,7 +3849,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1050" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Yards</a:t>
                 </a:r>
               </a:p>
@@ -3844,12 +3872,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3876,12 +3901,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4004,7 +4026,6 @@
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -4044,10 +4065,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4055,14 +4073,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Average Total</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> Pass Yards Per Season</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
+            <a:endParaRPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4081,10 +4111,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4472,12 +4499,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4485,7 +4509,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1050" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Season</a:t>
                 </a:r>
               </a:p>
@@ -4504,12 +4532,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4542,12 +4567,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4593,12 +4615,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4606,7 +4625,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1050" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Yards</a:t>
                 </a:r>
               </a:p>
@@ -4633,12 +4656,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4665,12 +4685,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4760,7 +4777,6 @@
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -5179,12 +5195,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5192,14 +5205,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Playoff</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> Passing Yard Leaders (2015-2024)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5216,12 +5241,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5404,7 +5426,17 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19797354772341053"/>
+          <c:y val="0.15118171978120773"/>
+          <c:w val="0.76168559377745049"/>
+          <c:h val="0.78714810007374436"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -5587,12 +5619,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5646,12 +5675,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5740,7 +5766,6 @@
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -5780,10 +5805,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5791,14 +5813,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Average QB</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> Rushing Yards Per Season</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
+            <a:endParaRPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5817,10 +5851,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6168,12 +6199,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6181,7 +6209,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1050" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Season</a:t>
                 </a:r>
               </a:p>
@@ -6200,12 +6232,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6238,12 +6267,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6289,12 +6315,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6302,7 +6325,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1050">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Avg Yards</a:t>
                 </a:r>
               </a:p>
@@ -6321,12 +6348,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6353,12 +6377,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6448,7 +6469,6 @@
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -9732,9 +9752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1073452</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>120951</xdr:rowOff>
+      <xdr:colOff>978202</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9763,16 +9783,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>45357</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>126395</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2267</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>235857</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>154063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9801,16 +9821,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>243384</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>155032</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>61956</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>930509</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>113772</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>151529</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9839,16 +9859,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>925307</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>151190</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>86200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>117528</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>171417</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>138016</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>187292</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9877,16 +9897,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57534</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>175683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>787191</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>135467</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9916,15 +9936,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1080105</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>75596</xdr:rowOff>
+      <xdr:colOff>968979</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>362857</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>145893</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -9960,8 +9980,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6819219" y="3628381"/>
-              <a:ext cx="2658701" cy="2385234"/>
+              <a:off x="6302979" y="6411989"/>
+              <a:ext cx="2521253" cy="3083529"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9993,16 +10013,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1058332</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>59267</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>296331</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>129564</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13756</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>92794</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -10038,8 +10058,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11282636" y="3612052"/>
-              <a:ext cx="1960502" cy="2385234"/>
+              <a:off x="14406938" y="6427409"/>
+              <a:ext cx="1826532" cy="3081528"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10071,16 +10091,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>382208</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>58058</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>128208</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1043216</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>128355</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>544133</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -10116,8 +10136,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9497271" y="3610843"/>
-              <a:ext cx="1770249" cy="2385234"/>
+              <a:off x="10687351" y="6410326"/>
+              <a:ext cx="1831068" cy="3085192"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10149,16 +10169,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1814</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>40520</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1081314</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>45357</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>110817</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84364</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -10194,8 +10214,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13248396" y="3593305"/>
-              <a:ext cx="1763670" cy="2385234"/>
+              <a:off x="8810171" y="6415768"/>
+              <a:ext cx="1833336" cy="3079750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10228,15 +10248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>135466</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>15269</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>67085</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>164646</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10261,6 +10281,84 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>87502</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Total Interceptions 2015-2024">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDEADB4-FB30-CCFF-199B-0D08EBAB8445}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Total Interceptions 2015-2024"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12568011" y="6422117"/>
+              <a:ext cx="1821996" cy="3081528"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11847,10 +11945,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DB5CFD8-D837-1E46-AD2E-D1B07C4DB65D}" name="PivotTable13" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I2:P17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DB5CFD8-D837-1E46-AD2E-D1B07C4DB65D}" name="PivotTable13" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I2:P32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="31">
         <item x="7"/>
         <item x="13"/>
@@ -12124,7 +12222,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="30">
     <i>
       <x v="17"/>
     </i>
@@ -12141,7 +12239,13 @@
       <x v="29"/>
     </i>
     <i>
+      <x v="12"/>
+    </i>
+    <i>
       <x v="21"/>
+    </i>
+    <i>
+      <x/>
     </i>
     <i>
       <x v="23"/>
@@ -12153,13 +12257,37 @@
       <x v="24"/>
     </i>
     <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i>
       <x v="27"/>
     </i>
     <i>
+      <x v="5"/>
+    </i>
+    <i>
       <x v="16"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="18"/>
     </i>
     <i>
       <x v="13"/>
@@ -12168,7 +12296,22 @@
       <x v="8"/>
     </i>
     <i>
+      <x v="4"/>
+    </i>
+    <i>
       <x v="19"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="26"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -12206,16 +12349,16 @@
     <dataField name="Passer Rating" fld="7" baseField="0" baseItem="0"/>
     <dataField name="Games Played" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleMedium15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="1" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="count" evalOrder="-1" id="15" iMeasureFld="5">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="15" filterVal="15"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -12228,7 +12371,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B532CA54-6A53-7943-A3F4-1638E1DAE7AF}" name="PivotTable14" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B532CA54-6A53-7943-A3F4-1638E1DAE7AF}" name="PivotTable14" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="G17:H27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -12334,7 +12477,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A522A3B1-4A1B-E642-B1DB-11EC6783AA2E}" name="PivotTable10" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A522A3B1-4A1B-E642-B1DB-11EC6783AA2E}" name="PivotTable10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="D3:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0">
@@ -12433,7 +12576,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40134FB9-C0B6-DC45-90D5-879615FDB3E5}" name="PivotTable9" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40134FB9-C0B6-DC45-90D5-879615FDB3E5}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A17:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
@@ -12611,7 +12754,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{573C6BAB-546E-9147-AFB3-1E6BB81C375D}" name="PivotTable6" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{573C6BAB-546E-9147-AFB3-1E6BB81C375D}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -12696,7 +12839,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6F1C2C9-8024-5044-8E3B-F16A56022893}" name="PivotTable12" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6F1C2C9-8024-5044-8E3B-F16A56022893}" name="PivotTable12" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="D18:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
@@ -13050,17 +13193,58 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Total_Interceptions_2015_2024" xr10:uid="{71A570A8-8D95-4FFA-8DA4-4AE29F35972B}" sourceName="Total Interceptions 2015-2024">
+  <pivotTables>
+    <pivotTable tabId="13" name="PivotTable13"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1626502262">
+      <items count="26">
+        <i x="22" s="1"/>
+        <i x="16" s="1"/>
+        <i x="19" s="1"/>
+        <i x="20" s="1"/>
+        <i x="13" s="1"/>
+        <i x="7" s="1"/>
+        <i x="18" s="1"/>
+        <i x="23" s="1"/>
+        <i x="24" s="1"/>
+        <i x="15" s="1"/>
+        <i x="25" s="1"/>
+        <i x="21" s="1"/>
+        <i x="4" s="1"/>
+        <i x="17" s="1"/>
+        <i x="14" s="1"/>
+        <i x="8" s="1"/>
+        <i x="12" s="1"/>
+        <i x="9" s="1"/>
+        <i x="11" s="1"/>
+        <i x="3" s="1"/>
+        <i x="10" s="1"/>
+        <i x="6" s="1"/>
+        <i x="5" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Player" xr10:uid="{E5E69E83-85E3-674D-AD1A-70550A2CE2EF}" cache="Slicer_Player" caption="Player" style="SlicerStyleOther1" rowHeight="230716"/>
   <slicer name="Total Passing Yards 2015-2024" xr10:uid="{492B5476-F6DB-B340-8960-93B1B9627CCA}" cache="Slicer_Total_Passing_Yards_2015_2024" caption="Total Passing Yards 2015-2024" startItem="8" style="SlicerStyleOther1" rowHeight="230716"/>
-  <slicer name="Total passing TDs 2015-2024" xr10:uid="{2A532A67-7961-2947-9B1B-35A0EBB13A2F}" cache="Slicer_Total_passing_TDs_2015_2024" caption="Total passing TDs 2015-2024" style="SlicerStyleOther1" rowHeight="230716"/>
-  <slicer name="Total Games Played 2015-2024" xr10:uid="{E3C198BD-F2D5-2745-99F4-D95C4AAEC1D0}" cache="Slicer_Total_Games_Played_2015_2024" caption="Total Games Played 2015-2024" startItem="8" style="SlicerStyleOther1" rowHeight="230716"/>
+  <slicer name="Total passing TDs 2015-2024" xr10:uid="{2A532A67-7961-2947-9B1B-35A0EBB13A2F}" cache="Slicer_Total_passing_TDs_2015_2024" caption="Passing TDs" style="SlicerStyleOther1" rowHeight="230716"/>
+  <slicer name="Total Games Played 2015-2024" xr10:uid="{E3C198BD-F2D5-2745-99F4-D95C4AAEC1D0}" cache="Slicer_Total_Games_Played_2015_2024" caption="Games Playes" startItem="8" style="SlicerStyleOther1" rowHeight="230716"/>
+  <slicer name="Total Interceptions 2015-2024" xr10:uid="{0EF40899-3A12-4DB2-AB7A-876FEEF1ABEA}" cache="Slicer_Total_Interceptions_2015_2024" caption="Total Interceptions 2015-2024" style="SlicerStyleOther1" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{68B4E2A2-A2B2-9944-B6CB-1348DB19305B}" name="Table2" displayName="Table2" ref="A1:H31" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{68B4E2A2-A2B2-9944-B6CB-1348DB19305B}" name="Table2" displayName="Table2" ref="A1:H31" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A1:H31" xr:uid="{68B4E2A2-A2B2-9944-B6CB-1348DB19305B}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C3669E53-0644-AE4F-BF50-DBD2A967C221}" name="Player"/>
@@ -13077,7 +13261,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE145AA8-EEF1-5B41-BCFD-3DB3B9D0B9CB}" name="Table3" displayName="Table3" ref="A1:B11" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE145AA8-EEF1-5B41-BCFD-3DB3B9D0B9CB}" name="Table3" displayName="Table3" ref="A1:B11" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A1:B11" xr:uid="{CE145AA8-EEF1-5B41-BCFD-3DB3B9D0B9CB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B778ACE0-BDB6-234C-8618-320B824EA664}" name="AVG Yards Thrown Downfield"/>
@@ -13088,7 +13272,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{83C66A01-A7E1-9F41-AE9C-018C0B68EC28}" name="Table4" displayName="Table4" ref="A1:B11" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{83C66A01-A7E1-9F41-AE9C-018C0B68EC28}" name="Table4" displayName="Table4" ref="A1:B11" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:B11" xr:uid="{83C66A01-A7E1-9F41-AE9C-018C0B68EC28}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F7568023-D953-D347-95B9-15A908B3C164}" name="Average Passing Yards"/>
@@ -13099,7 +13283,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{961CF644-10F6-064B-9469-589B7D08E247}" name="Table5" displayName="Table5" ref="A1:J31" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{961CF644-10F6-064B-9469-589B7D08E247}" name="Table5" displayName="Table5" ref="A1:J31" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A1:J31" xr:uid="{961CF644-10F6-064B-9469-589B7D08E247}">
     <filterColumn colId="1">
       <top10 val="14" filterVal="111.94"/>
@@ -13122,7 +13306,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6F2C7BB7-C895-0946-B63E-59DB3C669BC1}" name="Table6" displayName="Table6" ref="A1:H26" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6F2C7BB7-C895-0946-B63E-59DB3C669BC1}" name="Table6" displayName="Table6" ref="A1:H26" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:H26" xr:uid="{6F2C7BB7-C895-0946-B63E-59DB3C669BC1}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{334506C1-5776-9B43-96D1-69266772F330}" name="Player"/>
@@ -13139,7 +13323,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6280B04F-B80C-994D-9E47-D620955EAFD4}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6280B04F-B80C-994D-9E47-D620955EAFD4}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:E11" xr:uid="{6280B04F-B80C-994D-9E47-D620955EAFD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3F311932-DAB0-5648-84E1-1BAA72B08A74}" name="Average QB Rushing"/>
@@ -13437,32 +13621,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244C5D2F-4FD6-7D4A-A0DA-8B77F5100D89}">
-  <dimension ref="I1:P17"/>
+  <dimension ref="I1:P32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:16" ht="37" x14ac:dyDescent="0.45">
-      <c r="I1" s="6"/>
-      <c r="K1" s="7" t="s">
+    <row r="1" spans="9:16" ht="36">
+      <c r="I1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="9:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="9:16">
       <c r="I2" s="2" t="s">
         <v>97</v>
       </c>
@@ -13488,394 +13672,784 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I3" s="3" t="s">
+    <row r="3" spans="9:16">
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="7">
         <v>39699</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="7">
         <v>267</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="7">
         <v>107</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <v>69.08</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="7">
         <v>7.81</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="7">
         <v>101.1</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="7">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I4" s="3" t="s">
+    <row r="4" spans="9:16">
+      <c r="I4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="7">
         <v>37975</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="7">
         <v>236</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="7">
         <v>100</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="7">
         <v>67.23</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="7">
         <v>7.48</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="7">
         <v>96.73</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="7">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I5" s="3" t="s">
+    <row r="5" spans="9:16">
+      <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="7">
         <v>37936</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="7">
         <v>244</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="7">
         <v>103</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="7">
         <v>67.06</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="7">
         <v>7.68</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="7">
         <v>97.55</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="7">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I6" s="3" t="s">
+    <row r="6" spans="9:16">
+      <c r="I6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="7">
         <v>36185</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="7">
         <v>279</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="7">
         <v>85</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="7">
         <v>66.16</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="7">
         <v>7.76</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="7">
         <v>101.95</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="7">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I7" s="3" t="s">
+    <row r="7" spans="9:16">
+      <c r="I7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="7">
         <v>35550</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="7">
         <v>254</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="7">
         <v>70</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="7">
         <v>66.48</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="7">
         <v>7.51</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="7">
         <v>100.81</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="7">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I8" s="3" t="s">
+    <row r="8" spans="9:16">
+      <c r="I8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="7">
+        <v>34735</v>
+      </c>
+      <c r="K8" s="7">
+        <v>221</v>
+      </c>
+      <c r="L8" s="7">
+        <v>93</v>
+      </c>
+      <c r="M8" s="7">
+        <v>66.25</v>
+      </c>
+      <c r="N8" s="7">
+        <v>7.55</v>
+      </c>
+      <c r="O8" s="7">
+        <v>95.58</v>
+      </c>
+      <c r="P8" s="7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="9:16">
+      <c r="I9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J9" s="7">
         <v>34626</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K9" s="7">
         <v>201</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L9" s="7">
         <v>92</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M9" s="7">
         <v>68.319999999999993</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N9" s="7">
         <v>7.76</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O9" s="7">
         <v>97.63</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P9" s="7">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I9" s="3" t="s">
+    <row r="10" spans="9:16">
+      <c r="I10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7">
+        <v>33407</v>
+      </c>
+      <c r="K10" s="7">
+        <v>270</v>
+      </c>
+      <c r="L10" s="7">
+        <v>55</v>
+      </c>
+      <c r="M10" s="7">
+        <v>59.19</v>
+      </c>
+      <c r="N10" s="7">
+        <v>6.55</v>
+      </c>
+      <c r="O10" s="7">
+        <v>95.86</v>
+      </c>
+      <c r="P10" s="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="9:16">
+      <c r="I11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J11" s="7">
         <v>32352</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K11" s="7">
         <v>245</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L11" s="7">
         <v>75</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M11" s="7">
         <v>67.41</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N11" s="7">
         <v>7.96</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O11" s="7">
         <v>100.91</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P11" s="7">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I10" s="3" t="s">
+    <row r="12" spans="9:16">
+      <c r="I12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J12" s="7">
         <v>31230</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K12" s="7">
         <v>213</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L12" s="7">
         <v>82</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M12" s="7">
         <v>68.08</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N12" s="7">
         <v>7.71</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O12" s="7">
         <v>99.19</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P12" s="7">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I11" s="3" t="s">
+    <row r="13" spans="9:16">
+      <c r="I13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J13" s="7">
         <v>26785</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K13" s="7">
         <v>169</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L13" s="7">
         <v>87</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M13" s="7">
         <v>66.91</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N13" s="7">
         <v>7.98</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O13" s="7">
         <v>97.15</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P13" s="7">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I12" s="3" t="s">
+    <row r="14" spans="9:16">
+      <c r="I14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="7">
+        <v>26404</v>
+      </c>
+      <c r="K14" s="7">
+        <v>196</v>
+      </c>
+      <c r="L14" s="7">
+        <v>84</v>
+      </c>
+      <c r="M14" s="7">
+        <v>63.98</v>
+      </c>
+      <c r="N14" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="O14" s="7">
+        <v>93.95</v>
+      </c>
+      <c r="P14" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="9:16">
+      <c r="I15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="7">
+        <v>24766</v>
+      </c>
+      <c r="K15" s="7">
+        <v>164</v>
+      </c>
+      <c r="L15" s="7">
+        <v>80</v>
+      </c>
+      <c r="M15" s="7">
+        <v>65.83</v>
+      </c>
+      <c r="N15" s="7">
+        <v>7.19</v>
+      </c>
+      <c r="O15" s="7">
+        <v>91.38</v>
+      </c>
+      <c r="P15" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="9:16">
+      <c r="I16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="7">
+        <v>24742</v>
+      </c>
+      <c r="K16" s="7">
+        <v>154</v>
+      </c>
+      <c r="L16" s="7">
+        <v>84</v>
+      </c>
+      <c r="M16" s="7">
+        <v>64.7</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7.08</v>
+      </c>
+      <c r="O16" s="7">
+        <v>90.28</v>
+      </c>
+      <c r="P16" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="9:16">
+      <c r="I17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="7">
+        <v>24436</v>
+      </c>
+      <c r="K17" s="7">
+        <v>169</v>
+      </c>
+      <c r="L17" s="7">
+        <v>87</v>
+      </c>
+      <c r="M17" s="7">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7.38</v>
+      </c>
+      <c r="O17" s="7">
+        <v>91.66</v>
+      </c>
+      <c r="P17" s="7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="9:16">
+      <c r="I18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J18" s="7">
         <v>24091</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K18" s="7">
         <v>172</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L18" s="7">
         <v>48</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M18" s="7">
         <v>73.099999999999994</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N18" s="7">
         <v>8</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O18" s="7">
         <v>109.42</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P18" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I13" s="3" t="s">
+    <row r="19" spans="9:16">
+      <c r="I19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="7">
+        <v>23816</v>
+      </c>
+      <c r="K19" s="7">
+        <v>153</v>
+      </c>
+      <c r="L19" s="7">
+        <v>107</v>
+      </c>
+      <c r="M19" s="7">
+        <v>62.87</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7.57</v>
+      </c>
+      <c r="O19" s="7">
+        <v>87.1</v>
+      </c>
+      <c r="P19" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="9:16">
+      <c r="I20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J20" s="7">
         <v>23629</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K20" s="7">
         <v>154</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L20" s="7">
         <v>73</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M20" s="7">
         <v>67.430000000000007</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N20" s="7">
         <v>7.88</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O20" s="7">
         <v>97.66</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P20" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I14" s="3" t="s">
+    <row r="21" spans="9:16">
+      <c r="I21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="7">
+        <v>22410</v>
+      </c>
+      <c r="K21" s="7">
+        <v>153</v>
+      </c>
+      <c r="L21" s="7">
+        <v>67</v>
+      </c>
+      <c r="M21" s="7">
+        <v>64.98</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6.84</v>
+      </c>
+      <c r="O21" s="7">
+        <v>91.27</v>
+      </c>
+      <c r="P21" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="9:16">
+      <c r="I22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J22" s="7">
         <v>21093</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K22" s="7">
         <v>137</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L22" s="7">
         <v>45</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M22" s="7">
         <v>67.349999999999994</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N22" s="7">
         <v>7.32</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O22" s="7">
         <v>98.24</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P22" s="7">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I15" s="3" t="s">
+    <row r="23" spans="9:16">
+      <c r="I23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="7">
+        <v>19912</v>
+      </c>
+      <c r="K23" s="7">
+        <v>107</v>
+      </c>
+      <c r="L23" s="7">
+        <v>71</v>
+      </c>
+      <c r="M23" s="7">
+        <v>63.9</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6.95</v>
+      </c>
+      <c r="O23" s="7">
+        <v>88.88</v>
+      </c>
+      <c r="P23" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="9:16">
+      <c r="I24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="7">
+        <v>19279</v>
+      </c>
+      <c r="K24" s="7">
+        <v>115</v>
+      </c>
+      <c r="L24" s="7">
+        <v>56</v>
+      </c>
+      <c r="M24" s="7">
+        <v>68.42</v>
+      </c>
+      <c r="N24" s="7">
+        <v>7.09</v>
+      </c>
+      <c r="O24" s="7">
+        <v>94.38</v>
+      </c>
+      <c r="P24" s="7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="9:16">
+      <c r="I25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J25" s="7">
         <v>19001</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K25" s="7">
         <v>140</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L25" s="7">
         <v>46</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M25" s="7">
         <v>69.540000000000006</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N25" s="7">
         <v>7.49</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O25" s="7">
         <v>101.48</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P25" s="7">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I16" s="3" t="s">
+    <row r="26" spans="9:16">
+      <c r="I26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J26" s="7">
         <v>17773</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K26" s="7">
         <v>124</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L26" s="7">
         <v>47</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M26" s="7">
         <v>65.930000000000007</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N26" s="7">
         <v>7.55</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O26" s="7">
         <v>96.92</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P26" s="7">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="I17" s="3" t="s">
+    <row r="27" spans="9:16">
+      <c r="I27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="7">
+        <v>17759</v>
+      </c>
+      <c r="K27" s="7">
+        <v>110</v>
+      </c>
+      <c r="L27" s="7">
+        <v>69</v>
+      </c>
+      <c r="M27" s="7">
+        <v>60.13</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6.95</v>
+      </c>
+      <c r="O27" s="7">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="P27" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="9:16">
+      <c r="I28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J28" s="7">
         <v>17721</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K28" s="7">
         <v>147</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L28" s="7">
         <v>41</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M28" s="7">
         <v>67</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N28" s="7">
         <v>7.18</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O28" s="7">
         <v>99.2</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P28" s="7">
         <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="9:16">
+      <c r="I29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="7">
+        <v>17268</v>
+      </c>
+      <c r="K29" s="7">
+        <v>107</v>
+      </c>
+      <c r="L29" s="7">
+        <v>59</v>
+      </c>
+      <c r="M29" s="7">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="N29" s="7">
+        <v>7.09</v>
+      </c>
+      <c r="O29" s="7">
+        <v>89.16</v>
+      </c>
+      <c r="P29" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="9:16">
+      <c r="I30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="7">
+        <v>16073</v>
+      </c>
+      <c r="K30" s="7">
+        <v>98</v>
+      </c>
+      <c r="L30" s="7">
+        <v>66</v>
+      </c>
+      <c r="M30" s="7">
+        <v>62.63</v>
+      </c>
+      <c r="N30" s="7">
+        <v>7.15</v>
+      </c>
+      <c r="O30" s="7">
+        <v>86.6</v>
+      </c>
+      <c r="P30" s="7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="9:16">
+      <c r="I31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="7">
+        <v>15981</v>
+      </c>
+      <c r="K31" s="7">
+        <v>96</v>
+      </c>
+      <c r="L31" s="7">
+        <v>55</v>
+      </c>
+      <c r="M31" s="7">
+        <v>69.89</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7.48</v>
+      </c>
+      <c r="O31" s="7">
+        <v>95</v>
+      </c>
+      <c r="P31" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="9:16">
+      <c r="I32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="7">
+        <v>15717</v>
+      </c>
+      <c r="K32" s="7">
+        <v>100</v>
+      </c>
+      <c r="L32" s="7">
+        <v>68</v>
+      </c>
+      <c r="M32" s="7">
+        <v>62.09</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6.95</v>
+      </c>
+      <c r="O32" s="7">
+        <v>85.48</v>
+      </c>
+      <c r="P32" s="7">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -13898,9 +14472,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13920,7 +14494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -13940,7 +14514,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -13960,7 +14534,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -13980,7 +14554,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -14000,7 +14574,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -14020,7 +14594,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -14040,7 +14614,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -14060,7 +14634,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -14080,7 +14654,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -14100,7 +14674,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -14120,7 +14694,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -14140,7 +14714,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -14160,7 +14734,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -14180,7 +14754,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -14200,7 +14774,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -14220,7 +14794,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -14240,7 +14814,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -14260,7 +14834,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -14280,7 +14854,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -14300,7 +14874,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -14320,7 +14894,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -14340,7 +14914,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -14360,7 +14934,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -14380,7 +14954,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -14400,7 +14974,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -14420,7 +14994,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -14440,7 +15014,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -14460,7 +15034,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -14480,7 +15054,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -14500,7 +15074,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -14533,39 +15107,39 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="34" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="34" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>97</v>
       </c>
@@ -14579,7 +15153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>2015</v>
       </c>
@@ -14593,7 +15167,7 @@
         <v>3415.73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>2016</v>
       </c>
@@ -14607,7 +15181,7 @@
         <v>3760.7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>2017</v>
       </c>
@@ -14621,7 +15195,7 @@
         <v>3380.24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>2018</v>
       </c>
@@ -14635,7 +15209,7 @@
         <v>3190.92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>2019</v>
       </c>
@@ -14649,7 +15223,7 @@
         <v>3250.74</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>2020</v>
       </c>
@@ -14663,7 +15237,7 @@
         <v>3094.95</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>2021</v>
       </c>
@@ -14677,7 +15251,7 @@
         <v>3351.09</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>2022</v>
       </c>
@@ -14691,7 +15265,7 @@
         <v>2919.78</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>2023</v>
       </c>
@@ -14705,7 +15279,7 @@
         <v>2847.51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>2024</v>
       </c>
@@ -14719,7 +15293,7 @@
         <v>2873.64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>97</v>
       </c>
@@ -14733,7 +15307,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -14749,11 +15323,11 @@
       <c r="G18" s="3">
         <v>2015</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18">
         <v>123.88</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -14769,11 +15343,11 @@
       <c r="G19" s="3">
         <v>2016</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19">
         <v>125.72</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -14789,11 +15363,11 @@
       <c r="G20" s="3">
         <v>2017</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20">
         <v>139.04</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -14809,11 +15383,11 @@
       <c r="G21" s="3">
         <v>2018</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21">
         <v>151.72999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -14829,11 +15403,11 @@
       <c r="G22" s="3">
         <v>2019</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22">
         <v>157.96</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -14849,11 +15423,11 @@
       <c r="G23" s="3">
         <v>2020</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23">
         <v>148.31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -14869,11 +15443,11 @@
       <c r="G24" s="3">
         <v>2021</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24">
         <v>152.37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -14889,11 +15463,11 @@
       <c r="G25" s="3">
         <v>2022</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25">
         <v>160.22</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
         <v>14</v>
       </c>
@@ -14909,11 +15483,11 @@
       <c r="G26" s="3">
         <v>2023</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26">
         <v>140.88</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -14929,11 +15503,11 @@
       <c r="G27" s="3">
         <v>2024</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27">
         <v>178.25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
@@ -14947,7 +15521,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
@@ -14961,7 +15535,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
@@ -14975,7 +15549,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -14989,7 +15563,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -15003,7 +15577,7 @@
         <v>4843</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:5">
       <c r="D33" s="3" t="s">
         <v>16</v>
       </c>
@@ -15024,19 +15598,19 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -15062,7 +15636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -15088,7 +15662,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -15114,7 +15688,7 @@
         <v>96.73</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -15140,7 +15714,7 @@
         <v>97.55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -15166,7 +15740,7 @@
         <v>101.95</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -15192,7 +15766,7 @@
         <v>100.81</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -15218,7 +15792,7 @@
         <v>95.58</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -15244,7 +15818,7 @@
         <v>97.63</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -15270,7 +15844,7 @@
         <v>95.86</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -15296,7 +15870,7 @@
         <v>100.91</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -15322,7 +15896,7 @@
         <v>99.19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -15348,7 +15922,7 @@
         <v>97.15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -15374,7 +15948,7 @@
         <v>93.95</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -15400,7 +15974,7 @@
         <v>91.38</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -15426,7 +16000,7 @@
         <v>90.28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -15452,7 +16026,7 @@
         <v>91.66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -15478,7 +16052,7 @@
         <v>109.42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -15504,7 +16078,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -15530,7 +16104,7 @@
         <v>97.66</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -15556,7 +16130,7 @@
         <v>91.27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -15582,7 +16156,7 @@
         <v>98.24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -15608,7 +16182,7 @@
         <v>88.88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -15634,7 +16208,7 @@
         <v>94.38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -15660,7 +16234,7 @@
         <v>101.48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -15686,7 +16260,7 @@
         <v>96.92</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -15712,7 +16286,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -15738,7 +16312,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -15764,7 +16338,7 @@
         <v>89.16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -15790,7 +16364,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -15816,7 +16390,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -15858,12 +16432,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>67</v>
       </c>
@@ -15871,7 +16445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>7.62</v>
       </c>
@@ -15879,7 +16453,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>8.1</v>
       </c>
@@ -15887,7 +16461,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>7.81</v>
       </c>
@@ -15895,7 +16469,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>7.59</v>
       </c>
@@ -15903,7 +16477,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>8.01</v>
       </c>
@@ -15911,7 +16485,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>8.31</v>
       </c>
@@ -15919,7 +16493,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>8.4499999999999993</v>
       </c>
@@ -15927,7 +16501,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8.24</v>
       </c>
@@ -15935,7 +16509,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>8.82</v>
       </c>
@@ -15943,7 +16517,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>8.5</v>
       </c>
@@ -15967,12 +16541,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
@@ -15980,7 +16554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>3415.73</v>
       </c>
@@ -15988,7 +16562,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>3760.7</v>
       </c>
@@ -15996,7 +16570,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3380.24</v>
       </c>
@@ -16004,7 +16578,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3190.92</v>
       </c>
@@ -16012,7 +16586,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>3250.74</v>
       </c>
@@ -16020,7 +16594,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>3094.95</v>
       </c>
@@ -16028,7 +16602,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>3351.09</v>
       </c>
@@ -16036,7 +16610,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2919.78</v>
       </c>
@@ -16044,7 +16618,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2847.51</v>
       </c>
@@ -16052,7 +16626,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>2873.64</v>
       </c>
@@ -16076,19 +16650,19 @@
       <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="3" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -16120,7 +16694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -16152,7 +16726,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -16184,7 +16758,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -16216,7 +16790,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -16248,7 +16822,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -16280,7 +16854,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -16312,7 +16886,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -16344,7 +16918,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -16376,7 +16950,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -16408,7 +16982,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -16440,7 +17014,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -16472,7 +17046,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -16504,7 +17078,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -16536,7 +17110,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -16568,7 +17142,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -16600,7 +17174,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -16632,7 +17206,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -16664,7 +17238,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -16696,7 +17270,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -16728,7 +17302,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -16760,7 +17334,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -16792,7 +17366,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -16824,7 +17398,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -16856,7 +17430,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -16888,7 +17462,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -16920,7 +17494,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -16952,7 +17526,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -16984,7 +17558,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -17016,7 +17590,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -17048,7 +17622,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -17096,19 +17670,19 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -17134,7 +17708,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -17160,7 +17734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -17186,7 +17760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -17212,7 +17786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -17238,7 +17812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -17264,7 +17838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -17290,7 +17864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -17316,7 +17890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -17342,7 +17916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -17368,7 +17942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -17394,7 +17968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -17420,7 +17994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -17446,7 +18020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -17472,7 +18046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -17498,7 +18072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -17524,7 +18098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -17550,7 +18124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -17576,7 +18150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -17602,7 +18176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -17628,7 +18202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -17654,7 +18228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -17680,7 +18254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -17706,7 +18280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -17732,7 +18306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -17758,7 +18332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -17800,15 +18374,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>76</v>
       </c>
@@ -17825,7 +18399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>123.88</v>
       </c>
@@ -17842,7 +18416,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>125.72</v>
       </c>
@@ -17859,7 +18433,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>139.04</v>
       </c>
@@ -17876,7 +18450,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>151.72999999999999</v>
       </c>
@@ -17893,7 +18467,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>157.96</v>
       </c>
@@ -17910,7 +18484,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>148.31</v>
       </c>
@@ -17927,7 +18501,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>152.37</v>
       </c>
@@ -17944,7 +18518,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>160.22</v>
       </c>
@@ -17961,7 +18535,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>140.88</v>
       </c>
@@ -17978,7 +18552,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>178.25</v>
       </c>
@@ -18009,9 +18583,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18037,7 +18611,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -18063,7 +18637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -18089,7 +18663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -18115,7 +18689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -18141,7 +18715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -18167,7 +18741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -18193,7 +18767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -18219,7 +18793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -18245,7 +18819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -18271,7 +18845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -18297,7 +18871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -18323,7 +18897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -18349,7 +18923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -18375,7 +18949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -18401,7 +18975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -18427,7 +19001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -18453,7 +19027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -18479,7 +19053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -18505,7 +19079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -18531,7 +19105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -18557,7 +19131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -18583,7 +19157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -18609,7 +19183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -18635,7 +19209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -18661,7 +19235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -18687,7 +19261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -18713,7 +19287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -18739,7 +19313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -18765,7 +19339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -18791,7 +19365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>75</v>
       </c>

--- a/QB Data Project/analysis/qb_data_analysis.xlsx
+++ b/QB Data Project/analysis/qb_data_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Important Documents\Portfolio Project\QB_Stats_Dashboard\QB Data Project\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F5BCEF-4F72-4CC3-A1AB-45ED0E5B7163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625515AD-E8C9-459A-83FA-94E6000702C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="13" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -475,30 +475,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -756,6 +737,11 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2775,9 +2761,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16493664028229296"/>
+          <c:x val="0.18404269770226581"/>
           <c:y val="0.12235960740185808"/>
-          <c:w val="0.78981300826716028"/>
+          <c:w val="0.76961195851245201"/>
           <c:h val="0.78210291487212635"/>
         </c:manualLayout>
       </c:layout>
@@ -4898,9 +4884,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>top_30_passer_rating!$A$2:$A$15</c:f>
+              <c:f>top_30_passer_rating!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Aaron Rodgers</c:v>
                 </c:pt>
@@ -4943,15 +4929,18 @@
                 <c:pt idx="13">
                   <c:v>Russell Wilson</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>Joe Burrow</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>top_30_passer_rating!$B$2:$B$15</c:f>
+              <c:f>top_30_passer_rating!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>122.68</c:v>
                 </c:pt>
@@ -4993,6 +4982,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>111.94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9946,8 +9938,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="16" name="Player">
@@ -9970,7 +9962,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10024,8 +10016,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>92794</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="17" name="Total Passing Yards 2015-2024">
@@ -10048,7 +10040,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10102,8 +10094,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="18" name="Total passing TDs 2015-2024">
@@ -10126,7 +10118,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10180,8 +10172,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="20" name="Total Games Played 2015-2024">
@@ -10204,7 +10196,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -10296,8 +10288,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>87502</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Total Interceptions 2015-2024">
@@ -10320,7 +10312,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -12350,7 +12342,7 @@
     <dataField name="Games Played" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -12371,211 +12363,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B532CA54-6A53-7943-A3F4-1638E1DAE7AF}" name="PivotTable14" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="G17:H27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Average QB Rushing" fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium6" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A522A3B1-4A1B-E642-B1DB-11EC6783AA2E}" name="PivotTable10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="D3:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" showAll="0">
-      <items count="11">
-        <item x="8"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Average Passing Yards" fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{40134FB9-C0B6-DC45-90D5-879615FDB3E5}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A17:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -12753,7 +12540,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{573C6BAB-546E-9147-AFB3-1E6BB81C375D}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -12838,7 +12625,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6F1C2C9-8024-5044-8E3B-F16A56022893}" name="PivotTable12" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="D18:E33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -13014,6 +12801,211 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B532CA54-6A53-7943-A3F4-1638E1DAE7AF}" name="PivotTable14" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="G17:H27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Average QB Rushing" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium6" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A522A3B1-4A1B-E642-B1DB-11EC6783AA2E}" name="PivotTable10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="D3:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0">
+      <items count="11">
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Average Passing Yards" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -13244,7 +13236,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{68B4E2A2-A2B2-9944-B6CB-1348DB19305B}" name="Table2" displayName="Table2" ref="A1:H31" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{68B4E2A2-A2B2-9944-B6CB-1348DB19305B}" name="Table2" displayName="Table2" ref="A1:H31" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A1:H31" xr:uid="{68B4E2A2-A2B2-9944-B6CB-1348DB19305B}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C3669E53-0644-AE4F-BF50-DBD2A967C221}" name="Player"/>
@@ -13261,7 +13253,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE145AA8-EEF1-5B41-BCFD-3DB3B9D0B9CB}" name="Table3" displayName="Table3" ref="A1:B11" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE145AA8-EEF1-5B41-BCFD-3DB3B9D0B9CB}" name="Table3" displayName="Table3" ref="A1:B11" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:B11" xr:uid="{CE145AA8-EEF1-5B41-BCFD-3DB3B9D0B9CB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B778ACE0-BDB6-234C-8618-320B824EA664}" name="AVG Yards Thrown Downfield"/>
@@ -13272,7 +13264,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{83C66A01-A7E1-9F41-AE9C-018C0B68EC28}" name="Table4" displayName="Table4" ref="A1:B11" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{83C66A01-A7E1-9F41-AE9C-018C0B68EC28}" name="Table4" displayName="Table4" ref="A1:B11" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A1:B11" xr:uid="{83C66A01-A7E1-9F41-AE9C-018C0B68EC28}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F7568023-D953-D347-95B9-15A908B3C164}" name="Average Passing Yards"/>
@@ -13283,10 +13275,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{961CF644-10F6-064B-9469-589B7D08E247}" name="Table5" displayName="Table5" ref="A1:J31" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{961CF644-10F6-064B-9469-589B7D08E247}" name="Table5" displayName="Table5" ref="A1:J31" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:J31" xr:uid="{961CF644-10F6-064B-9469-589B7D08E247}">
     <filterColumn colId="1">
-      <top10 val="14" filterVal="111.94"/>
+      <top10 val="15" filterVal="111.2"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="10">
@@ -13306,7 +13298,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6F2C7BB7-C895-0946-B63E-59DB3C669BC1}" name="Table6" displayName="Table6" ref="A1:H26" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6F2C7BB7-C895-0946-B63E-59DB3C669BC1}" name="Table6" displayName="Table6" ref="A1:H26" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:H26" xr:uid="{6F2C7BB7-C895-0946-B63E-59DB3C669BC1}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{334506C1-5776-9B43-96D1-69266772F330}" name="Player"/>
@@ -13323,7 +13315,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6280B04F-B80C-994D-9E47-D620955EAFD4}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6280B04F-B80C-994D-9E47-D620955EAFD4}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:E11" xr:uid="{6280B04F-B80C-994D-9E47-D620955EAFD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3F311932-DAB0-5648-84E1-1BAA72B08A74}" name="Average QB Rushing"/>
@@ -13623,8 +13615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244C5D2F-4FD6-7D4A-A0DA-8B77F5100D89}">
   <dimension ref="I1:P32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X50" sqref="X50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AA51" sqref="AA51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -13673,782 +13665,782 @@
       </c>
     </row>
     <row r="3" spans="9:16">
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3">
         <v>39699</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3">
         <v>267</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3">
         <v>107</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3">
         <v>69.08</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3">
         <v>7.81</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3">
         <v>101.1</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="9:16">
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4">
         <v>37975</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4">
         <v>236</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4">
         <v>100</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4">
         <v>67.23</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4">
         <v>7.48</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4">
         <v>96.73</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="9:16">
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5">
         <v>37936</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5">
         <v>244</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5">
         <v>103</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5">
         <v>67.06</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5">
         <v>7.68</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5">
         <v>97.55</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5">
         <v>144</v>
       </c>
     </row>
     <row r="6" spans="9:16">
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6">
         <v>36185</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6">
         <v>279</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6">
         <v>85</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6">
         <v>66.16</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6">
         <v>7.76</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6">
         <v>101.95</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="9:16">
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7">
         <v>35550</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7">
         <v>254</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7">
         <v>70</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7">
         <v>66.48</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7">
         <v>7.51</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7">
         <v>100.81</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="9:16">
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8">
         <v>34735</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8">
         <v>221</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8">
         <v>93</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8">
         <v>66.25</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8">
         <v>7.55</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8">
         <v>95.58</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="9:16">
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9">
         <v>34626</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9">
         <v>201</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9">
         <v>92</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9">
         <v>68.319999999999993</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9">
         <v>7.76</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9">
         <v>97.63</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="9:16">
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10">
         <v>33407</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10">
         <v>270</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10">
         <v>55</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10">
         <v>59.19</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10">
         <v>6.55</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10">
         <v>95.86</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="9:16">
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11">
         <v>32352</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11">
         <v>245</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11">
         <v>75</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11">
         <v>67.41</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11">
         <v>7.96</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11">
         <v>100.91</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11">
         <v>112</v>
       </c>
     </row>
     <row r="12" spans="9:16">
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12">
         <v>31230</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12">
         <v>213</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12">
         <v>82</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12">
         <v>68.08</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12">
         <v>7.71</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12">
         <v>99.19</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12">
         <v>121</v>
       </c>
     </row>
     <row r="13" spans="9:16">
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13">
         <v>26785</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13">
         <v>169</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13">
         <v>87</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13">
         <v>66.91</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13">
         <v>7.98</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13">
         <v>97.15</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="9:16">
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14">
         <v>26404</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14">
         <v>196</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14">
         <v>63.98</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14">
         <v>7.4</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14">
         <v>93.95</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="9:16">
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15">
         <v>24766</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15">
         <v>164</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15">
         <v>80</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15">
         <v>65.83</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15">
         <v>7.19</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15">
         <v>91.38</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="9:16">
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16">
         <v>24742</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16">
         <v>154</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16">
         <v>84</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16">
         <v>64.7</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16">
         <v>7.08</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16">
         <v>90.28</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="9:16">
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17">
         <v>24436</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17">
         <v>169</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17">
         <v>87</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17">
         <v>64.650000000000006</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17">
         <v>7.38</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17">
         <v>91.66</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17">
         <v>115</v>
       </c>
     </row>
     <row r="18" spans="9:16">
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18">
         <v>24091</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18">
         <v>172</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18">
         <v>48</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18">
         <v>73.099999999999994</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18">
         <v>8</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18">
         <v>109.42</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="9:16">
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19">
         <v>23816</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19">
         <v>153</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19">
         <v>107</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19">
         <v>62.87</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19">
         <v>7.57</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19">
         <v>87.1</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="9:16">
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20">
         <v>23629</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20">
         <v>154</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20">
         <v>73</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20">
         <v>67.430000000000007</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20">
         <v>7.88</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20">
         <v>97.66</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20">
         <v>106</v>
       </c>
     </row>
     <row r="21" spans="9:16">
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21">
         <v>22410</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21">
         <v>153</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21">
         <v>67</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21">
         <v>64.98</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21">
         <v>6.84</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21">
         <v>91.27</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21">
         <v>96</v>
       </c>
     </row>
     <row r="22" spans="9:16">
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22">
         <v>21093</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22">
         <v>137</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22">
         <v>45</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22">
         <v>67.349999999999994</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22">
         <v>7.32</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22">
         <v>98.24</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="9:16">
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23">
         <v>19912</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23">
         <v>107</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23">
         <v>71</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23">
         <v>63.9</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23">
         <v>6.95</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23">
         <v>88.88</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="9:16">
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24">
         <v>19279</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24">
         <v>115</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24">
         <v>56</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24">
         <v>68.42</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24">
         <v>7.09</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24">
         <v>94.38</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24">
         <v>81</v>
       </c>
     </row>
     <row r="25" spans="9:16">
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25">
         <v>19001</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25">
         <v>140</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25">
         <v>46</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25">
         <v>69.540000000000006</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25">
         <v>7.49</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25">
         <v>101.48</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="9:16">
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26">
         <v>17773</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26">
         <v>124</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26">
         <v>47</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26">
         <v>65.930000000000007</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26">
         <v>7.55</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26">
         <v>96.92</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="9:16">
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27">
         <v>17759</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27">
         <v>110</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27">
         <v>69</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27">
         <v>60.13</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27">
         <v>6.95</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27">
         <v>80.599999999999994</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="9:16">
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28">
         <v>17721</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28">
         <v>147</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28">
         <v>41</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28">
         <v>67</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28">
         <v>7.18</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28">
         <v>99.2</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="9:16">
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29">
         <v>17268</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29">
         <v>107</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29">
         <v>59</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29">
         <v>64.650000000000006</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29">
         <v>7.09</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29">
         <v>89.16</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="9:16">
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30">
         <v>16073</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30">
         <v>98</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30">
         <v>66</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30">
         <v>62.63</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30">
         <v>7.15</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30">
         <v>86.6</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30">
         <v>81</v>
       </c>
     </row>
     <row r="31" spans="9:16">
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31">
         <v>15981</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31">
         <v>96</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31">
         <v>55</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31">
         <v>69.89</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31">
         <v>7.48</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31">
         <v>95</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="9:16">
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32">
         <v>15717</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32">
         <v>100</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32">
         <v>68</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32">
         <v>62.09</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32">
         <v>6.95</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32">
         <v>85.48</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32">
         <v>69</v>
       </c>
     </row>
@@ -15103,7 +15095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E132D88-3C58-F943-8F97-E000F2ACCC84}">
   <dimension ref="A3:H33"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -17142,7 +17134,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>30</v>
       </c>
